--- a/Intermedio/practice-files/Sesión 1/INICIO.xlsx
+++ b/Intermedio/practice-files/Sesión 1/INICIO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1-Learn\Excel\Intermedio\practice-files\Sesión 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{379E9427-02E0-471A-A76C-BC0B35CC6E90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F38349E-F72E-4B36-946A-E96D76529E5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10245" windowHeight="11520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inicial" sheetId="1" r:id="rId1"/>
@@ -140,7 +140,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
+    <numFmt numFmtId="5" formatCode="&quot;$&quot;#,##0_);\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="164" formatCode="_-[$S/.-280A]\ * #,##0.00_ ;_-[$S/.-280A]\ * \-#,##0.00\ ;_-[$S/.-280A]\ * &quot;-&quot;??_ ;_-@_ "/>
   </numFmts>
@@ -456,7 +457,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -484,24 +485,6 @@
     <xf numFmtId="1" fontId="5" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="8" fontId="3" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -514,24 +497,47 @@
     <xf numFmtId="3" fontId="5" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -913,24 +919,24 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
-      <c r="H3" s="17" t="s">
+      <c r="H3" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="18"/>
+      <c r="I3" s="29"/>
       <c r="J3" s="2"/>
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="31"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="34"/>
       <c r="G4" s="2"/>
       <c r="H4" s="3" t="s">
         <v>3</v>
@@ -942,12 +948,12 @@
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="32"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="31"/>
+      <c r="A5" s="31"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="34"/>
       <c r="G5" s="2"/>
       <c r="H5" s="5">
         <v>5</v>
@@ -972,34 +978,34 @@
       <c r="K6" s="2"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="13" t="s">
+      <c r="C7" s="22"/>
+      <c r="D7" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="14"/>
-      <c r="F7" s="13" t="s">
+      <c r="E7" s="22"/>
+      <c r="F7" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="14"/>
-      <c r="H7" s="13" t="s">
+      <c r="G7" s="22"/>
+      <c r="H7" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="14"/>
-      <c r="J7" s="15" t="s">
+      <c r="I7" s="22"/>
+      <c r="J7" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="K7" s="20" t="s">
+      <c r="K7" s="36" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
+      <c r="A8" s="24"/>
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -1024,8 +1030,8 @@
       <c r="I8" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
@@ -1057,11 +1063,11 @@
         <f t="shared" si="0"/>
         <v>705</v>
       </c>
-      <c r="J9" s="23">
+      <c r="J9" s="15">
         <f t="shared" ref="J9:J16" si="1">H9+I9</f>
         <v>1175</v>
       </c>
-      <c r="K9" s="21">
+      <c r="K9" s="13">
         <f t="shared" ref="K9:K16" si="2">(H9*$H$5)+(I9*$I$5)</f>
         <v>9047.5</v>
       </c>
@@ -1097,11 +1103,11 @@
         <f t="shared" si="3"/>
         <v>404</v>
       </c>
-      <c r="J10" s="23">
+      <c r="J10" s="15">
         <f t="shared" si="1"/>
         <v>747</v>
       </c>
-      <c r="K10" s="21">
+      <c r="K10" s="13">
         <f t="shared" si="2"/>
         <v>5553</v>
       </c>
@@ -1136,11 +1142,11 @@
         <f t="shared" si="4"/>
         <v>768</v>
       </c>
-      <c r="J11" s="23">
+      <c r="J11" s="15">
         <f t="shared" si="1"/>
         <v>1228</v>
       </c>
-      <c r="K11" s="21">
+      <c r="K11" s="13">
         <f t="shared" si="2"/>
         <v>9596</v>
       </c>
@@ -1175,11 +1181,11 @@
         <f t="shared" si="5"/>
         <v>794</v>
       </c>
-      <c r="J12" s="23">
+      <c r="J12" s="15">
         <f t="shared" si="1"/>
         <v>1247</v>
       </c>
-      <c r="K12" s="21">
+      <c r="K12" s="13">
         <f t="shared" si="2"/>
         <v>9808</v>
       </c>
@@ -1214,11 +1220,11 @@
         <f t="shared" si="6"/>
         <v>595</v>
       </c>
-      <c r="J13" s="23">
+      <c r="J13" s="15">
         <f t="shared" si="1"/>
         <v>1125</v>
       </c>
-      <c r="K13" s="21">
+      <c r="K13" s="13">
         <f t="shared" si="2"/>
         <v>8302.5</v>
       </c>
@@ -1253,11 +1259,11 @@
         <f t="shared" si="7"/>
         <v>433</v>
       </c>
-      <c r="J14" s="23">
+      <c r="J14" s="15">
         <f t="shared" si="1"/>
         <v>979</v>
       </c>
-      <c r="K14" s="21">
+      <c r="K14" s="13">
         <f t="shared" si="2"/>
         <v>6843.5</v>
       </c>
@@ -1292,11 +1298,11 @@
         <f t="shared" si="8"/>
         <v>592</v>
       </c>
-      <c r="J15" s="23">
+      <c r="J15" s="15">
         <f t="shared" si="1"/>
         <v>1118</v>
       </c>
-      <c r="K15" s="21">
+      <c r="K15" s="13">
         <f t="shared" si="2"/>
         <v>8254</v>
       </c>
@@ -1331,11 +1337,11 @@
         <f t="shared" si="9"/>
         <v>543</v>
       </c>
-      <c r="J16" s="23">
+      <c r="J16" s="15">
         <f t="shared" si="1"/>
         <v>1189</v>
       </c>
-      <c r="K16" s="21">
+      <c r="K16" s="13">
         <f t="shared" si="2"/>
         <v>8388.5</v>
       </c>
@@ -1376,11 +1382,11 @@
         <f t="shared" si="10"/>
         <v>4834</v>
       </c>
-      <c r="J17" s="24">
+      <c r="J17" s="16">
         <f t="shared" si="10"/>
         <v>8808</v>
       </c>
-      <c r="K17" s="22">
+      <c r="K17" s="14">
         <f t="shared" si="10"/>
         <v>65793</v>
       </c>
@@ -2392,19 +2398,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1229F3D8-693D-4D81-B02E-7246E15CBBB2}">
-  <dimension ref="F8:H13"/>
+  <dimension ref="F8:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="8" spans="6:8" x14ac:dyDescent="0.25">
       <c r="G8">
         <v>0.5</v>
       </c>
-      <c r="H8" s="34">
+      <c r="H8" s="18">
         <f>G8</f>
         <v>0.5</v>
       </c>
@@ -2413,17 +2422,17 @@
       <c r="G9">
         <v>5</v>
       </c>
-      <c r="H9" s="33">
+      <c r="H9" s="17">
         <f>G9</f>
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F12" s="35"/>
+      <c r="F12" s="19"/>
       <c r="G12">
         <v>12345</v>
       </c>
-      <c r="H12" s="36">
+      <c r="H12" s="20">
         <f>G12</f>
         <v>12345</v>
       </c>
@@ -2432,9 +2441,81 @@
       <c r="G13">
         <v>-12345</v>
       </c>
-      <c r="H13" s="36">
+      <c r="H13" s="20">
         <f>G13</f>
         <v>-12345</v>
+      </c>
+    </row>
+    <row r="14" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G14">
+        <v>12345</v>
+      </c>
+      <c r="H14" s="37">
+        <f t="shared" ref="H14:H15" si="0">G14</f>
+        <v>12345</v>
+      </c>
+    </row>
+    <row r="15" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G15">
+        <v>-12345</v>
+      </c>
+      <c r="H15" s="37">
+        <f t="shared" si="0"/>
+        <v>-12345</v>
+      </c>
+    </row>
+    <row r="16" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G16">
+        <v>12345</v>
+      </c>
+      <c r="H16" s="38">
+        <f>G16</f>
+        <v>12345</v>
+      </c>
+    </row>
+    <row r="17" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G17">
+        <v>-12345</v>
+      </c>
+      <c r="H17" s="38">
+        <f>G17</f>
+        <v>-12345</v>
+      </c>
+    </row>
+    <row r="19" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G19">
+        <v>12345</v>
+      </c>
+      <c r="H19" s="39">
+        <f>G19</f>
+        <v>12345</v>
+      </c>
+    </row>
+    <row r="20" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G20">
+        <v>-12345</v>
+      </c>
+      <c r="H20" s="39">
+        <f>G20</f>
+        <v>-12345</v>
+      </c>
+    </row>
+    <row r="22" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G22">
+        <v>2.5600000000000001E-2</v>
+      </c>
+      <c r="H22" s="40">
+        <f>G22</f>
+        <v>2.5600000000000001E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G24">
+        <v>123456</v>
+      </c>
+      <c r="H24" s="41">
+        <f>G24</f>
+        <v>123456</v>
       </c>
     </row>
   </sheetData>
